--- a/src/test/resources/userSettings.xlsx
+++ b/src/test/resources/userSettings.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/582003e1f621abc3/Desktop/AutomateCRM/Automatesmb-9wood/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_F25DC773A252ABDACC104890F918537A5BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A57F14F-E242-4C53-9F52-5CD516AEF27C}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_F25DC773A252ABDACC104890F918537A5BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C2496CB-E5C2-4038-B930-ADF416875E8E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
+    <sheet name="userInfo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>testcase_name</t>
   </si>
@@ -85,6 +86,54 @@
   </si>
   <si>
     <t>admintext</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>ReportName</t>
+  </si>
+  <si>
+    <t>ReportFolder</t>
+  </si>
+  <si>
+    <t>PrimaryModule</t>
+  </si>
+  <si>
+    <t>RelatedModule</t>
+  </si>
+  <si>
+    <t>ConditionField</t>
+  </si>
+  <si>
+    <t>CompareField</t>
+  </si>
+  <si>
+    <t>GroupField</t>
+  </si>
+  <si>
+    <t>Chart_Report</t>
+  </si>
+  <si>
+    <t>Test Chethana</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>TestDerek O'Connell</t>
+  </si>
+  <si>
+    <t>TestDerek OConnell</t>
   </si>
 </sst>
 </file>
@@ -108,12 +157,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -129,10 +184,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -164,6 +220,22 @@
 </file>
 
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -432,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,4 +605,125 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5E01F4-E52A-4DFA-A97A-8BFAAB652C5C}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>